--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0421830074512</v>
+        <v>2.222587333333333</v>
       </c>
       <c r="H2">
-        <v>1.0421830074512</v>
+        <v>6.667762</v>
       </c>
       <c r="I2">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="J2">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N2">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q2">
-        <v>26.65729496565678</v>
+        <v>78.48209989818444</v>
       </c>
       <c r="R2">
-        <v>26.65729496565678</v>
+        <v>706.33889908366</v>
       </c>
       <c r="S2">
-        <v>0.03151907592884821</v>
+        <v>0.07017766127646929</v>
       </c>
       <c r="T2">
-        <v>0.03151907592884821</v>
+        <v>0.07017766127646928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0421830074512</v>
+        <v>2.222587333333333</v>
       </c>
       <c r="H3">
-        <v>1.0421830074512</v>
+        <v>6.667762</v>
       </c>
       <c r="I3">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="J3">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N3">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q3">
-        <v>6.738243432894111</v>
+        <v>14.56097419728133</v>
       </c>
       <c r="R3">
-        <v>6.738243432894111</v>
+        <v>131.048767775532</v>
       </c>
       <c r="S3">
-        <v>0.007967170212209098</v>
+        <v>0.01302023157379684</v>
       </c>
       <c r="T3">
-        <v>0.007967170212209098</v>
+        <v>0.01302023157379683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0421830074512</v>
+        <v>2.222587333333333</v>
       </c>
       <c r="H4">
-        <v>1.0421830074512</v>
+        <v>6.667762</v>
       </c>
       <c r="I4">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="J4">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N4">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q4">
-        <v>11.41180352677071</v>
+        <v>24.34158755474333</v>
       </c>
       <c r="R4">
-        <v>11.41180352677071</v>
+        <v>219.07428799269</v>
       </c>
       <c r="S4">
-        <v>0.01349309831731915</v>
+        <v>0.02176592737152049</v>
       </c>
       <c r="T4">
-        <v>0.01349309831731915</v>
+        <v>0.02176592737152048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0421830074512</v>
+        <v>2.222587333333333</v>
       </c>
       <c r="H5">
-        <v>1.0421830074512</v>
+        <v>6.667762</v>
       </c>
       <c r="I5">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="J5">
-        <v>0.05817363456357103</v>
+        <v>0.1134117015526119</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N5">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O5">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P5">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q5">
-        <v>4.393076871413976</v>
+        <v>9.447557163837109</v>
       </c>
       <c r="R5">
-        <v>4.393076871413976</v>
+        <v>85.02801447453399</v>
       </c>
       <c r="S5">
-        <v>0.005194290105194571</v>
+        <v>0.008447881330825338</v>
       </c>
       <c r="T5">
-        <v>0.005194290105194571</v>
+        <v>0.008447881330825337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7899777158461</v>
+        <v>11.89424733333333</v>
       </c>
       <c r="H6">
-        <v>11.7899777158461</v>
+        <v>35.682742</v>
       </c>
       <c r="I6">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423107</v>
       </c>
       <c r="J6">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423106</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N6">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O6">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P6">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q6">
-        <v>301.5678737446181</v>
+        <v>419.9994724294511</v>
       </c>
       <c r="R6">
-        <v>301.5678737446181</v>
+        <v>3779.99525186506</v>
       </c>
       <c r="S6">
-        <v>0.3565680884914852</v>
+        <v>0.3755580030438466</v>
       </c>
       <c r="T6">
-        <v>0.3565680884914852</v>
+        <v>0.3755580030438465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.7899777158461</v>
+        <v>11.89424733333333</v>
       </c>
       <c r="H7">
-        <v>11.7899777158461</v>
+        <v>35.682742</v>
       </c>
       <c r="I7">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423107</v>
       </c>
       <c r="J7">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423106</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N7">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P7">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q7">
-        <v>76.22820497914118</v>
+        <v>77.92351999820133</v>
       </c>
       <c r="R7">
-        <v>76.22820497914118</v>
+        <v>701.3116799838119</v>
       </c>
       <c r="S7">
-        <v>0.0901307722239911</v>
+        <v>0.06967818647816862</v>
       </c>
       <c r="T7">
-        <v>0.0901307722239911</v>
+        <v>0.06967818647816861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.7899777158461</v>
+        <v>11.89424733333333</v>
       </c>
       <c r="H8">
-        <v>11.7899777158461</v>
+        <v>35.682742</v>
       </c>
       <c r="I8">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423107</v>
       </c>
       <c r="J8">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423106</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N8">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O8">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P8">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q8">
-        <v>129.0991201317784</v>
+        <v>130.2647857836433</v>
       </c>
       <c r="R8">
-        <v>129.0991201317784</v>
+        <v>1172.38307205279</v>
       </c>
       <c r="S8">
-        <v>0.152644331505628</v>
+        <v>0.1164810577805122</v>
       </c>
       <c r="T8">
-        <v>0.152644331505628</v>
+        <v>0.1164810577805122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.7899777158461</v>
+        <v>11.89424733333333</v>
       </c>
       <c r="H9">
-        <v>11.7899777158461</v>
+        <v>35.682742</v>
       </c>
       <c r="I9">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423107</v>
       </c>
       <c r="J9">
-        <v>0.6581050067508344</v>
+        <v>0.6069263549423106</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N9">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O9">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P9">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q9">
-        <v>49.69787268422234</v>
+        <v>50.55890489304377</v>
       </c>
       <c r="R9">
-        <v>49.69787268422234</v>
+        <v>455.0301440373939</v>
       </c>
       <c r="S9">
-        <v>0.05876181452973024</v>
+        <v>0.04520910763978336</v>
       </c>
       <c r="T9">
-        <v>0.05876181452973024</v>
+        <v>0.04520910763978336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.705404374948846</v>
+        <v>0.762</v>
       </c>
       <c r="H10">
-        <v>0.705404374948846</v>
+        <v>2.286</v>
       </c>
       <c r="I10">
-        <v>0.03937498120236806</v>
+        <v>0.0388824840702579</v>
       </c>
       <c r="J10">
-        <v>0.03937498120236806</v>
+        <v>0.03888248407025789</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N10">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O10">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P10">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q10">
-        <v>18.04306187937596</v>
+        <v>26.90709122</v>
       </c>
       <c r="R10">
-        <v>18.04306187937596</v>
+        <v>242.16382098</v>
       </c>
       <c r="S10">
-        <v>0.02133377141595305</v>
+        <v>0.02405996699912337</v>
       </c>
       <c r="T10">
-        <v>0.02133377141595305</v>
+        <v>0.02405996699912336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.705404374948846</v>
+        <v>0.762</v>
       </c>
       <c r="H11">
-        <v>0.705404374948846</v>
+        <v>2.286</v>
       </c>
       <c r="I11">
-        <v>0.03937498120236806</v>
+        <v>0.0388824840702579</v>
       </c>
       <c r="J11">
-        <v>0.03937498120236806</v>
+        <v>0.03888248407025789</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N11">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P11">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q11">
-        <v>4.560798212070641</v>
+        <v>4.992137844</v>
       </c>
       <c r="R11">
-        <v>4.560798212070641</v>
+        <v>44.929240596</v>
       </c>
       <c r="S11">
-        <v>0.005392600611862868</v>
+        <v>0.004463903987229834</v>
       </c>
       <c r="T11">
-        <v>0.005392600611862868</v>
+        <v>0.004463903987229833</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.705404374948846</v>
+        <v>0.762</v>
       </c>
       <c r="H12">
-        <v>0.705404374948846</v>
+        <v>2.286</v>
       </c>
       <c r="I12">
-        <v>0.03937498120236806</v>
+        <v>0.0388824840702579</v>
       </c>
       <c r="J12">
-        <v>0.03937498120236806</v>
+        <v>0.03888248407025789</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N12">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O12">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P12">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q12">
-        <v>7.724109946417127</v>
+        <v>8.34535923</v>
       </c>
       <c r="R12">
-        <v>7.724109946417127</v>
+        <v>75.10823307</v>
       </c>
       <c r="S12">
-        <v>0.009132839929840753</v>
+        <v>0.007462310438089397</v>
       </c>
       <c r="T12">
-        <v>0.009132839929840753</v>
+        <v>0.007462310438089396</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.705404374948846</v>
+        <v>0.762</v>
       </c>
       <c r="H13">
-        <v>0.705404374948846</v>
+        <v>2.286</v>
       </c>
       <c r="I13">
-        <v>0.03937498120236806</v>
+        <v>0.0388824840702579</v>
       </c>
       <c r="J13">
-        <v>0.03937498120236806</v>
+        <v>0.03888248407025789</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N13">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O13">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P13">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q13">
-        <v>2.973465909946832</v>
+        <v>3.239035178</v>
       </c>
       <c r="R13">
-        <v>2.973465909946832</v>
+        <v>29.151316602</v>
       </c>
       <c r="S13">
-        <v>0.003515769244711392</v>
+        <v>0.002896302645815301</v>
       </c>
       <c r="T13">
-        <v>0.003515769244711392</v>
+        <v>0.002896302645815301</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.37747519912985</v>
+        <v>4.718678666666666</v>
       </c>
       <c r="H14">
-        <v>4.37747519912985</v>
+        <v>14.156036</v>
       </c>
       <c r="I14">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="J14">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N14">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O14">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P14">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q14">
-        <v>111.9684803472634</v>
+        <v>166.6219387426089</v>
       </c>
       <c r="R14">
-        <v>111.9684803472634</v>
+        <v>1499.59744868348</v>
       </c>
       <c r="S14">
-        <v>0.132389390530803</v>
+        <v>0.1489911456685925</v>
       </c>
       <c r="T14">
-        <v>0.132389390530803</v>
+        <v>0.1489911456685925</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.37747519912985</v>
+        <v>4.718678666666666</v>
       </c>
       <c r="H15">
-        <v>4.37747519912985</v>
+        <v>14.156036</v>
       </c>
       <c r="I15">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="J15">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N15">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O15">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P15">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q15">
-        <v>28.30260453519697</v>
+        <v>30.91377210701067</v>
       </c>
       <c r="R15">
-        <v>28.30260453519697</v>
+        <v>278.223948963096</v>
       </c>
       <c r="S15">
-        <v>0.03346445850857389</v>
+        <v>0.02764268833935655</v>
       </c>
       <c r="T15">
-        <v>0.03346445850857389</v>
+        <v>0.02764268833935655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.37747519912985</v>
+        <v>4.718678666666666</v>
       </c>
       <c r="H16">
-        <v>4.37747519912985</v>
+        <v>14.156036</v>
       </c>
       <c r="I16">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="J16">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N16">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O16">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P16">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q16">
-        <v>47.93293170069314</v>
+        <v>51.67856766964666</v>
       </c>
       <c r="R16">
-        <v>47.93293170069314</v>
+        <v>465.10710902682</v>
       </c>
       <c r="S16">
-        <v>0.05667498205323698</v>
+        <v>0.04621029536516591</v>
       </c>
       <c r="T16">
-        <v>0.05667498205323698</v>
+        <v>0.04621029536516591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.37747519912985</v>
+        <v>4.718678666666666</v>
       </c>
       <c r="H17">
-        <v>4.37747519912985</v>
+        <v>14.156036</v>
       </c>
       <c r="I17">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="J17">
-        <v>0.2443463774832265</v>
+        <v>0.2407794594348195</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N17">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O17">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P17">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q17">
-        <v>18.45221512440185</v>
+        <v>20.05769841865022</v>
       </c>
       <c r="R17">
-        <v>18.45221512440185</v>
+        <v>180.519285767852</v>
       </c>
       <c r="S17">
-        <v>0.0218175463906127</v>
+        <v>0.01793533006170457</v>
       </c>
       <c r="T17">
-        <v>0.0218175463906127</v>
+        <v>0.01793533006170457</v>
       </c>
     </row>
   </sheetData>
